--- a/data/extracted_data/raw_round2/Mafra_2019_Fig_4.xlsx
+++ b/data/extracted_data/raw_round2/Mafra_2019_Fig_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA5AA70-710E-984F-860C-2DADC30BB180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{4EA5AA70-710E-984F-860C-2DADC30BB180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{876B582C-2CD4-474D-A479-4E0CB441E9E0}"/>
   <bookViews>
-    <workbookView xWindow="19760" yWindow="4760" windowWidth="27640" windowHeight="16940" xr2:uid="{4157B3EB-89F4-BF45-ACAA-1135DDD17D37}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{4157B3EB-89F4-BF45-ACAA-1135DDD17D37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,51 +36,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="13">
   <si>
     <t>treatment</t>
   </si>
   <si>
-    <t>West Africa mangrove oyster-OA esters</t>
+    <t>day</t>
   </si>
   <si>
-    <t>time</t>
+    <t>toxicity</t>
   </si>
   <si>
-    <t>toxticity</t>
+    <t>species</t>
   </si>
   <si>
-    <t>West Africa mangrove oyster-max-OA</t>
+    <t>West Africa mangrove oyster</t>
   </si>
   <si>
-    <t>Brown mussel-OA esters</t>
+    <t>OA esters</t>
   </si>
   <si>
-    <t>Brown mussel-max-OA</t>
+    <t>max-OA</t>
   </si>
   <si>
-    <t>Trinidad swamp mussel-OA esters</t>
+    <t>Brown mussel</t>
   </si>
   <si>
-    <t>Trinidad swamp mussel-max-OA</t>
+    <t>Trinidad swamp mussel</t>
   </si>
   <si>
-    <t>Carolinian ghost shrimp-OA esters</t>
+    <t>Carolinian ghost shrimp</t>
   </si>
   <si>
-    <t>Carolinian ghost shrimp-max-OA</t>
+    <t>Lebranche mullet(gizzard)</t>
   </si>
   <si>
-    <t>Lebranche mullet(gizzard)-OA</t>
+    <t>OA</t>
   </si>
   <si>
-    <t>Lebranche mullet(gizzard)-max-OA</t>
-  </si>
-  <si>
-    <t>Atlantic spadefish(liver)-OA</t>
-  </si>
-  <si>
-    <t>Atlantic spadefish(liver)-max-OA</t>
+    <t>Atlantic spadefish(liver)</t>
   </si>
 </sst>
 </file>
@@ -137,9 +131,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,7 +171,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -283,7 +277,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,727 +427,914 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E42570-F148-DF4F-A9DE-FCE63FB83026}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E7:E8"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
         <v>42536</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>346.72843080486302</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
         <v>42544</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>76.548928778227904</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
         <v>42545</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>697.39432541980295</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
         <v>42551</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>372.78517660683201</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
         <v>42557</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>211.696583671106</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
         <v>42564</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>50.607990735379602</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
         <v>42578</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>16.9079328314996</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
         <v>42536</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1455.8193398957701</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
         <v>42544</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>131.094383323682</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
         <v>42545</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1806.4852345107099</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
         <v>42551</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>518.12391430225796</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
         <v>42557</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>338.96931094383302</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
         <v>42564</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1122.75622466705</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
         <v>42578</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>16.9079328314996</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
         <v>42592</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.2738853503183201</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
         <v>42536</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>7706.4220183486204</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
         <v>42537</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2935.7798165137601</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
         <v>42543</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>366.97247706421803</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
         <v>42545</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>293.57798165137501</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
         <v>42536</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>7706.4220183486204</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
         <v>42537</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>6238.5321100917399</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
         <v>42543</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>366.97247706421803</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="1">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
         <v>42545</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>513.76146788990798</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
         <v>42536</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>247.619047619047</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
         <v>42542</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4.7619047619048098</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
         <v>45832</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>119.04761904761899</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
         <v>42536</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>409.52380952380901</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
         <v>42542</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>4.7619047619048098</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
         <v>42545</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>142.85714285714201</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
         <v>42545</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1188.67924528301</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1">
         <v>42546</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>283.01886792452802</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
         <v>42548</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1330.1886792452799</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
         <v>42550</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>84.905660377359695</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
         <v>42552</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>127.35849056603899</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
         <v>42558</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>14.150943396226401</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
         <v>42563</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>42.4528301886794</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>42545</v>
+      </c>
+      <c r="D38">
+        <v>1188.67924528301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>42546</v>
+      </c>
+      <c r="D39">
+        <v>594.33962264151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>42548</v>
+      </c>
+      <c r="D40">
+        <v>1471.69811320754</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>42550</v>
+      </c>
+      <c r="D41">
+        <v>84.905660377359695</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>42552</v>
+      </c>
+      <c r="D42">
+        <v>127.35849056603899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>42558</v>
+      </c>
+      <c r="D43">
+        <v>14.150943396226401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1">
+        <v>42563</v>
+      </c>
+      <c r="D44">
+        <v>42.4528301886794</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1">
+        <v>42522</v>
+      </c>
+      <c r="D45">
+        <v>19.349680170575699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1">
+        <v>42538</v>
+      </c>
+      <c r="D46">
+        <v>34.821428571428498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1">
+        <v>42541</v>
+      </c>
+      <c r="D47">
+        <v>2.0922174840085201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1">
         <v>42545</v>
       </c>
-      <c r="C38">
-        <v>1188.67924528301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="D48">
+        <v>15.778251599147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="1">
-        <v>42546</v>
-      </c>
-      <c r="C39">
-        <v>594.33962264151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1">
+        <v>42522</v>
+      </c>
+      <c r="D49">
+        <v>24.706823027718599</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="1">
-        <v>42548</v>
-      </c>
-      <c r="C40">
-        <v>1471.69811320754</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1">
+        <v>42538</v>
+      </c>
+      <c r="D50">
+        <v>156.25</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="1">
-        <v>42550</v>
-      </c>
-      <c r="C41">
-        <v>84.905660377359695</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1">
+        <v>42541</v>
+      </c>
+      <c r="D51">
+        <v>9.2350746268656394</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="1">
-        <v>42552</v>
-      </c>
-      <c r="C42">
-        <v>127.35849056603899</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="1">
-        <v>42558</v>
-      </c>
-      <c r="C43">
-        <v>14.150943396226401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="1">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1">
+        <v>42545</v>
+      </c>
+      <c r="D52">
+        <v>53.291577825159798</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1">
+        <v>42533</v>
+      </c>
+      <c r="D53">
+        <v>16.071428571428498</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1">
+        <v>42536</v>
+      </c>
+      <c r="D54">
+        <v>17.857142857143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1">
+        <v>42549</v>
+      </c>
+      <c r="D55">
+        <v>44.642857142857103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1">
         <v>42563</v>
       </c>
-      <c r="C44">
-        <v>42.4528301886794</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="D56">
+        <v>16.071428571428498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="1">
-        <v>42522</v>
-      </c>
-      <c r="C45">
-        <v>19.349680170575699</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="C57" s="1">
+        <v>42564</v>
+      </c>
+      <c r="D57">
+        <v>14.285714285714301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="1">
-        <v>42538</v>
-      </c>
-      <c r="C46">
-        <v>34.821428571428498</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="1">
-        <v>42541</v>
-      </c>
-      <c r="C47">
-        <v>2.0922174840085201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="1">
-        <v>42545</v>
-      </c>
-      <c r="C48">
-        <v>15.778251599147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="C58" s="1">
+        <v>42570</v>
+      </c>
+      <c r="D58">
+        <v>5.3571428571429998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="1">
-        <v>42522</v>
-      </c>
-      <c r="C49">
-        <v>24.706823027718599</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1">
+        <v>42533</v>
+      </c>
+      <c r="D59">
+        <v>37.500000000000099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="1">
-        <v>42538</v>
-      </c>
-      <c r="C50">
-        <v>156.25</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1">
+        <v>42536</v>
+      </c>
+      <c r="D60">
+        <v>44.642857142857103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="1">
-        <v>42541</v>
-      </c>
-      <c r="C51">
-        <v>9.2350746268656394</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1">
+        <v>42549</v>
+      </c>
+      <c r="D61">
+        <v>57.142857142857203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="1">
-        <v>42545</v>
-      </c>
-      <c r="C52">
-        <v>53.291577825159798</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="1">
-        <v>42533</v>
-      </c>
-      <c r="C53">
-        <v>16.071428571428498</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="1">
-        <v>42536</v>
-      </c>
-      <c r="C54">
-        <v>17.857142857143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="1">
-        <v>42549</v>
-      </c>
-      <c r="C55">
-        <v>44.642857142857103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="1">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1">
         <v>42563</v>
       </c>
-      <c r="C56">
-        <v>16.071428571428498</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="1">
+      <c r="D62">
+        <v>35.714285714285701</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1">
         <v>42564</v>
       </c>
-      <c r="C57">
-        <v>14.285714285714301</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="1">
+      <c r="D63">
+        <v>41.071428571428598</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="1">
         <v>42570</v>
       </c>
-      <c r="C58">
-        <v>5.3571428571429998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="1">
-        <v>42533</v>
-      </c>
-      <c r="C59">
-        <v>37.500000000000099</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="1">
-        <v>42536</v>
-      </c>
-      <c r="C60">
-        <v>44.642857142857103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="1">
-        <v>42549</v>
-      </c>
-      <c r="C61">
-        <v>57.142857142857203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="1">
-        <v>42563</v>
-      </c>
-      <c r="C62">
-        <v>35.714285714285701</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="1">
-        <v>42564</v>
-      </c>
-      <c r="C63">
-        <v>41.071428571428598</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="1">
-        <v>42570</v>
-      </c>
-      <c r="C64">
+      <c r="D64">
         <v>26.785714285714299</v>
       </c>
     </row>

--- a/data/extracted_data/raw_round2/Mafra_2019_Fig_4.xlsx
+++ b/data/extracted_data/raw_round2/Mafra_2019_Fig_4.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{4EA5AA70-710E-984F-860C-2DADC30BB180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{876B582C-2CD4-474D-A479-4E0CB441E9E0}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{4EA5AA70-710E-984F-860C-2DADC30BB180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C29D4F1E-6FB7-6641-BEB9-C00F5D5F07E1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{4157B3EB-89F4-BF45-ACAA-1135DDD17D37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="17">
   <si>
     <t>treatment</t>
   </si>
@@ -76,6 +76,18 @@
   <si>
     <t>Atlantic spadefish(liver)</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Depuration</t>
+  </si>
+  <si>
+    <t>Uptake</t>
+  </si>
 </sst>
 </file>
 
@@ -110,9 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,6 +141,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,914 +444,1359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E42570-F148-DF4F-A9DE-FCE63FB83026}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="2" max="3" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
         <v>42536</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="2">
+        <f>$D2-$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>346.72843080486302</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
         <v>42544</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E16" si="0">$D3-$D$2</f>
+        <v>8</v>
+      </c>
+      <c r="F3">
         <v>76.548928778227904</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
         <v>42545</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F4">
         <v>697.39432541980295</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
         <v>42551</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F5">
         <v>372.78517660683201</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
         <v>42557</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F6">
         <v>211.696583671106</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
         <v>42564</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F7">
         <v>50.607990735379602</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
         <v>42578</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F8">
         <v>16.9079328314996</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
         <v>42536</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>1455.8193398957701</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
         <v>42544</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F10">
         <v>131.094383323682</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
         <v>42545</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F11">
         <v>1806.4852345107099</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
         <v>42551</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F12">
         <v>518.12391430225796</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
         <v>42557</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F13">
         <v>338.96931094383302</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
         <v>42564</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F14">
         <v>1122.75622466705</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
         <v>42578</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F15">
         <v>16.9079328314996</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
         <v>42592</v>
       </c>
-      <c r="D16">
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F16">
         <v>1.2738853503183201</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1">
         <v>42536</v>
       </c>
-      <c r="D17">
+      <c r="E17" s="2">
+        <f>$D17-$D$17</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>7706.4220183486204</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
         <v>42537</v>
       </c>
-      <c r="D18">
+      <c r="E18" s="2">
+        <f t="shared" ref="E18:E24" si="1">$D18-$D$17</f>
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>2935.7798165137601</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1">
         <v>42543</v>
       </c>
-      <c r="D19">
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F19">
         <v>366.97247706421803</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
         <v>42545</v>
       </c>
-      <c r="D20">
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F20">
         <v>293.57798165137501</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
         <v>42536</v>
       </c>
-      <c r="D21">
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>7706.4220183486204</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1">
         <v>42537</v>
       </c>
-      <c r="D22">
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>6238.5321100917399</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1">
         <v>42543</v>
       </c>
-      <c r="D23">
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F23">
         <v>366.97247706421803</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
         <v>42545</v>
       </c>
-      <c r="D24">
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F24">
         <v>513.76146788990798</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1">
         <v>42536</v>
       </c>
-      <c r="D25">
+      <c r="E25" s="2">
+        <f>$D25-$D$25</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>247.619047619047</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1">
         <v>42542</v>
       </c>
-      <c r="D26">
+      <c r="E26" s="2">
+        <f t="shared" ref="E26:E30" si="2">$D26-$D$25</f>
+        <v>6</v>
+      </c>
+      <c r="F26">
         <v>4.7619047619048098</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="1">
-        <v>45832</v>
-      </c>
-      <c r="D27">
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1">
+        <v>42545</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F27">
         <v>119.04761904761899</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1">
         <v>42536</v>
       </c>
-      <c r="D28">
+      <c r="E28" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>409.52380952380901</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1">
         <v>42542</v>
       </c>
-      <c r="D29">
+      <c r="E29" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F29">
         <v>4.7619047619048098</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1">
         <v>42545</v>
       </c>
-      <c r="D30">
+      <c r="E30" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F30">
         <v>142.85714285714201</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1">
         <v>42545</v>
       </c>
-      <c r="D31">
+      <c r="E31" s="2">
+        <f>$D31-$D$31</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>1188.67924528301</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1">
         <v>42546</v>
       </c>
-      <c r="D32">
+      <c r="E32" s="2">
+        <f t="shared" ref="E32:E44" si="3">$D32-$D$31</f>
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>283.01886792452802</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1">
         <v>42548</v>
       </c>
-      <c r="D33">
+      <c r="E33" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F33">
         <v>1330.1886792452799</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1">
         <v>42550</v>
       </c>
-      <c r="D34">
+      <c r="E34" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F34">
         <v>84.905660377359695</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1">
         <v>42552</v>
       </c>
-      <c r="D35">
+      <c r="E35" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F35">
         <v>127.35849056603899</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1">
         <v>42558</v>
       </c>
-      <c r="D36">
+      <c r="E36" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="F36">
         <v>14.150943396226401</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1">
         <v>42563</v>
       </c>
-      <c r="D37">
+      <c r="E37" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F37">
         <v>42.4528301886794</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1">
         <v>42545</v>
       </c>
-      <c r="D38">
+      <c r="E38" s="2">
+        <f>$D38-$D$31</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>1188.67924528301</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>9</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="1">
         <v>42546</v>
       </c>
-      <c r="D39">
+      <c r="E39" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>594.33962264151</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1">
         <v>42548</v>
       </c>
-      <c r="D40">
+      <c r="E40" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F40">
         <v>1471.69811320754</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>9</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1">
         <v>42550</v>
       </c>
-      <c r="D41">
+      <c r="E41" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F41">
         <v>84.905660377359695</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="1">
         <v>42552</v>
       </c>
-      <c r="D42">
+      <c r="E42" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F42">
         <v>127.35849056603899</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1">
         <v>42558</v>
       </c>
-      <c r="D43">
+      <c r="E43" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="F43">
         <v>14.150943396226401</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>9</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1">
         <v>42563</v>
       </c>
-      <c r="D44">
+      <c r="E44" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F44">
         <v>42.4528301886794</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="1">
-        <v>42522</v>
-      </c>
-      <c r="D45">
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="1">
+        <v>42535</v>
+      </c>
+      <c r="E45" s="2">
+        <f>$D45-$D$45</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>19.349680170575699</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>10</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="1">
         <v>42538</v>
       </c>
-      <c r="D46">
+      <c r="E46" s="2">
+        <f t="shared" ref="E46:E52" si="4">$D46-$D$45</f>
+        <v>3</v>
+      </c>
+      <c r="F46">
         <v>34.821428571428498</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1">
         <v>42541</v>
       </c>
-      <c r="D47">
+      <c r="E47" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F47">
         <v>2.0922174840085201</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1">
         <v>42545</v>
       </c>
-      <c r="D48">
+      <c r="E48" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F48">
         <v>15.778251599147</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="1">
-        <v>42522</v>
-      </c>
-      <c r="D49">
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="1">
+        <v>42535</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>24.706823027718599</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>10</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="1">
         <v>42538</v>
       </c>
-      <c r="D50">
+      <c r="E50" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F50">
         <v>156.25</v>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>10</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="1">
         <v>42541</v>
       </c>
-      <c r="D51">
+      <c r="E51" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F51">
         <v>9.2350746268656394</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="1">
         <v>42545</v>
       </c>
-      <c r="D52">
+      <c r="E52" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F52">
         <v>53.291577825159798</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>12</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="1">
         <v>42533</v>
       </c>
-      <c r="D53">
+      <c r="E53" s="2">
+        <f>$D53-$D$53</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
         <v>16.071428571428498</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>12</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="1">
         <v>42536</v>
       </c>
-      <c r="D54">
+      <c r="E54" s="2">
+        <f t="shared" ref="E54:E64" si="5">$D54-$D$53</f>
+        <v>3</v>
+      </c>
+      <c r="F54">
         <v>17.857142857143</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>12</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="1">
         <v>42549</v>
       </c>
-      <c r="D55">
+      <c r="E55" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F55">
         <v>44.642857142857103</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="1">
         <v>42563</v>
       </c>
-      <c r="D56">
+      <c r="E56" s="2">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="F56">
         <v>16.071428571428498</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="1">
         <v>42564</v>
       </c>
-      <c r="D57">
+      <c r="E57" s="2">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="F57">
         <v>14.285714285714301</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="1">
         <v>42570</v>
       </c>
-      <c r="D58">
+      <c r="E58" s="2">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="F58">
         <v>5.3571428571429998</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>12</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="1">
         <v>42533</v>
       </c>
-      <c r="D59">
+      <c r="E59" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
         <v>37.500000000000099</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>12</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="1">
         <v>42536</v>
       </c>
-      <c r="D60">
+      <c r="E60" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F60">
         <v>44.642857142857103</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>12</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="1">
         <v>42549</v>
       </c>
-      <c r="D61">
+      <c r="E61" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="F61">
         <v>57.142857142857203</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>12</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="1">
         <v>42563</v>
       </c>
-      <c r="D62">
+      <c r="E62" s="2">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="F62">
         <v>35.714285714285701</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>12</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="1">
         <v>42564</v>
       </c>
-      <c r="D63">
+      <c r="E63" s="2">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="F63">
         <v>41.071428571428598</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C64" s="1">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D64" s="1">
         <v>42570</v>
       </c>
-      <c r="D64">
+      <c r="E64" s="2">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="F64">
         <v>26.785714285714299</v>
       </c>
     </row>
